--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1076">
   <si>
     <t>anchor score</t>
   </si>
@@ -358,607 +358,607 @@
     <t>bitch</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>announces</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>jobs</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>announces</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>ban</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>delayed</t>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>hazard</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>jobs</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>better</t>
@@ -3607,10 +3607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5">
         <v>0.8582677165354331</v>
@@ -3889,7 +3889,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K7">
         <v>0.7966101694915254</v>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -4039,7 +4039,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K10">
         <v>0.7092198581560284</v>
@@ -4089,16 +4089,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="K11">
-        <v>0.6826086956521739</v>
+        <v>0.6703296703296703</v>
       </c>
       <c r="L11">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="M11">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>0.95</v>
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4139,28 +4139,28 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="K12">
-        <v>0.6703296703296703</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4189,28 +4189,28 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K13">
+        <v>0.6569037656903766</v>
+      </c>
+      <c r="L13">
         <v>157</v>
       </c>
-      <c r="K13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L13">
-        <v>30</v>
-      </c>
       <c r="M13">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4239,7 +4239,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14">
         <v>0.6119402985074627</v>
@@ -4289,28 +4289,28 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>141</v>
+        <v>313</v>
       </c>
       <c r="K15">
-        <v>0.5945121951219512</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L15">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4339,28 +4339,28 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="K16">
-        <v>0.5833333333333334</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4389,28 +4389,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="K17">
-        <v>0.5747126436781609</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="M17">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4489,7 +4489,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K19">
         <v>0.5631578947368421</v>
@@ -4539,7 +4539,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K20">
         <v>0.543859649122807</v>
@@ -4589,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K21">
         <v>0.5347222222222222</v>
@@ -4739,7 +4739,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K24">
         <v>0.4523809523809524</v>
@@ -4889,7 +4889,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K27">
         <v>0.4177215189873418</v>
@@ -4989,7 +4989,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K29">
         <v>0.3829787234042553</v>
@@ -5039,7 +5039,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K30">
         <v>0.375</v>
@@ -5139,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K32">
         <v>0.3726415094339622</v>
@@ -5239,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K34">
         <v>0.3664596273291926</v>
@@ -5339,7 +5339,7 @@
         <v>46</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K36">
         <v>0.3398533007334963</v>
@@ -5889,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K47">
         <v>0.3035714285714285</v>
@@ -6089,7 +6089,7 @@
         <v>19</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K51">
         <v>0.2948717948717949</v>
@@ -6489,7 +6489,7 @@
         <v>26</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K59">
         <v>0.2833333333333333</v>
@@ -6539,7 +6539,7 @@
         <v>24</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K60">
         <v>0.2752293577981652</v>
@@ -6689,7 +6689,7 @@
         <v>29</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K63">
         <v>0.265625</v>
@@ -6739,7 +6739,7 @@
         <v>11</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K64">
         <v>0.2631578947368421</v>
@@ -6939,7 +6939,7 @@
         <v>21</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K68">
         <v>0.2592592592592592</v>
@@ -6989,7 +6989,7 @@
         <v>9</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K69">
         <v>0.2592592592592592</v>
@@ -7139,7 +7139,7 @@
         <v>19</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K72">
         <v>0.2571428571428571</v>
@@ -7239,7 +7239,7 @@
         <v>5</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K74">
         <v>0.2556701030927835</v>
@@ -7789,7 +7789,7 @@
         <v>6</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K85">
         <v>0.2439024390243902</v>
@@ -7839,7 +7839,7 @@
         <v>18</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K86">
         <v>0.2427184466019418</v>
@@ -7889,7 +7889,7 @@
         <v>6</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K87">
         <v>0.2424242424242424</v>
@@ -8039,7 +8039,7 @@
         <v>6</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K90">
         <v>0.2394366197183098</v>
@@ -8139,7 +8139,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K92">
         <v>0.2347629796839729</v>
@@ -8189,7 +8189,7 @@
         <v>128</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K93">
         <v>0.2333333333333333</v>
@@ -8968,25 +8968,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1097560975609756</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>379</v>
@@ -9021,10 +9021,10 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>380</v>
@@ -9068,25 +9068,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1052631578947368</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>381</v>
@@ -9118,25 +9118,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.103448275862069</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>382</v>
@@ -9168,13 +9168,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1025641025641026</v>
+        <v>0.1</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>383</v>
@@ -9271,10 +9271,10 @@
         <v>0.1</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -9286,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>106</v>
@@ -9321,10 +9321,10 @@
         <v>0.1</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -9336,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K116">
         <v>0.2215743440233236</v>
@@ -9389,7 +9389,7 @@
         <v>9</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K117">
         <v>0.2214983713355049</v>
@@ -9418,28 +9418,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K118">
         <v>0.2207792207792208</v>
@@ -9468,28 +9468,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.09302325581395349</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K119">
         <v>0.21875</v>
@@ -9589,7 +9589,7 @@
         <v>10</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K121">
         <v>0.2142857142857143</v>
@@ -9721,22 +9721,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>388</v>
@@ -9771,25 +9771,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E125">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="F125">
-        <v>0.29</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K125">
         <v>0.2118834080717489</v>
@@ -9821,22 +9821,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>389</v>
@@ -9868,7 +9868,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>390</v>
@@ -9921,10 +9921,10 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>391</v>
@@ -9971,10 +9971,10 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -9986,10 +9986,10 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K129">
         <v>0.2095238095238095</v>
@@ -10039,7 +10039,7 @@
         <v>11</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K130">
         <v>0.2093023255813954</v>
@@ -10089,7 +10089,7 @@
         <v>11</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K131">
         <v>0.2083333333333333</v>
@@ -10174,16 +10174,16 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>11</v>
@@ -10224,16 +10224,16 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>11</v>
@@ -10268,28 +10268,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K135">
         <v>0.2060390763765542</v>
@@ -10318,28 +10318,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.08275862068965517</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>12</v>
       </c>
-      <c r="D136">
-        <v>207</v>
-      </c>
-      <c r="E136">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F136">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>133</v>
-      </c>
       <c r="J136" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K136">
         <v>0.2040816326530612</v>
@@ -10368,25 +10368,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>395</v>
@@ -10418,28 +10418,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K138">
         <v>0.2026632023384216</v>
@@ -10468,25 +10468,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>396</v>
@@ -10568,25 +10568,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E141">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F141">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>398</v>
@@ -10618,28 +10618,28 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F142">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K142">
         <v>0.2</v>
@@ -10674,16 +10674,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>14</v>
@@ -10724,16 +10724,16 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>14</v>
@@ -10774,16 +10774,16 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>14</v>
@@ -10874,16 +10874,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>14</v>
@@ -10918,13 +10918,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>404</v>
@@ -10968,25 +10968,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>405</v>
@@ -11021,22 +11021,22 @@
         <v>0.0625</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>406</v>
@@ -11068,25 +11068,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>407</v>
@@ -11118,25 +11118,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F152">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>408</v>
@@ -11174,16 +11174,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>16</v>
@@ -11221,22 +11221,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>410</v>
@@ -11268,25 +11268,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>411</v>
@@ -11318,28 +11318,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K156">
         <v>0.1965811965811966</v>
@@ -11374,22 +11374,22 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
         <v>17</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K157">
         <v>0.19452313503305</v>
@@ -11418,25 +11418,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E158">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F158">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>412</v>
@@ -11468,28 +11468,28 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K159">
         <v>0.1935483870967742</v>
@@ -11518,25 +11518,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>413</v>
@@ -11568,25 +11568,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>414</v>
@@ -11618,28 +11618,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05128205128205128</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K162">
         <v>0.1923076923076923</v>
@@ -11668,13 +11668,13 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.05128205128205128</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D163">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="E163">
         <v>0.96</v>
@@ -11686,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>415</v>
@@ -11718,28 +11718,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.05063291139240506</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E164">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="F164">
-        <v>0.18</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K164">
         <v>0.1917808219178082</v>
@@ -11768,25 +11768,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04964539007092199</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>416</v>
@@ -11824,13 +11824,13 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
@@ -11839,7 +11839,7 @@
         <v>20</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K166">
         <v>0.1911764705882353</v>
@@ -11871,10 +11871,10 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E167">
         <v>0.75</v>
@@ -11886,10 +11886,10 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K167">
         <v>0.1908396946564886</v>
@@ -11924,13 +11924,13 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
@@ -11939,7 +11939,7 @@
         <v>20</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K168">
         <v>0.1904761904761905</v>
@@ -11968,25 +11968,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F169">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>417</v>
@@ -12018,25 +12018,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>418</v>
@@ -12068,25 +12068,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>419</v>
@@ -12174,22 +12174,22 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>22</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K173">
         <v>0.1818181818181818</v>
@@ -12218,25 +12218,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>421</v>
@@ -12268,25 +12268,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>422</v>
@@ -12324,13 +12324,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -12368,25 +12368,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>424</v>
@@ -12418,25 +12418,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.04166666666666666</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E178">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F178">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>425</v>
@@ -12468,25 +12468,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>426</v>
@@ -12518,25 +12518,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0392156862745098</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E180">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F180">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>427</v>
@@ -12568,25 +12568,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F181">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>428</v>
@@ -12624,16 +12624,16 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>26</v>
@@ -12668,25 +12668,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03703703703703703</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E183">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F183">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>430</v>
@@ -12718,7 +12718,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>431</v>
@@ -12768,25 +12768,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03658536585365853</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>432</v>
@@ -12818,7 +12818,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12836,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>433</v>
@@ -12868,28 +12868,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K187">
         <v>0.1778471138845554</v>
@@ -12918,25 +12918,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>434</v>
@@ -12968,28 +12968,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="E189">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F189">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K189">
         <v>0.1764705882352941</v>
@@ -13018,28 +13018,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K190">
         <v>0.1754385964912281</v>
@@ -13068,25 +13068,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03225806451612903</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="C191">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="E191">
-        <v>0.9399999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F191">
-        <v>0.06000000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>435</v>
@@ -13118,25 +13118,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>436</v>
@@ -13168,25 +13168,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03191489361702127</v>
+        <v>0.03125</v>
       </c>
       <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
         <v>3</v>
       </c>
-      <c r="D193">
-        <v>10</v>
-      </c>
       <c r="E193">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="F193">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>437</v>
@@ -13224,13 +13224,13 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
@@ -13268,13 +13268,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E195">
         <v>0.67</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>439</v>
@@ -13318,25 +13318,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03125</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>440</v>
@@ -13368,28 +13368,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K197">
         <v>0.1691176470588235</v>
@@ -13418,25 +13418,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02923976608187134</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E198">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F198">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>441</v>
@@ -13468,28 +13468,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K199">
         <v>0.1666666666666667</v>
@@ -13521,22 +13521,22 @@
         <v>0.02777777777777778</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E200">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F200">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>442</v>
@@ -13568,25 +13568,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02777777777777778</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>443</v>
@@ -13618,25 +13618,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>444</v>
@@ -13668,25 +13668,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02723735408560311</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C203">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F203">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>445</v>
@@ -13721,22 +13721,22 @@
         <v>0.02702702702702703</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>446</v>
@@ -13768,28 +13768,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02702702702702703</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K205">
         <v>0.1666666666666667</v>
@@ -13818,25 +13818,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E206">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F206">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>447</v>
@@ -13868,25 +13868,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02654867256637168</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F207">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>448</v>
@@ -13918,7 +13918,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13936,7 +13936,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>449</v>
@@ -13968,25 +13968,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>450</v>
@@ -14018,7 +14018,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -14036,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>451</v>
@@ -14074,13 +14074,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -14124,13 +14124,13 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F212">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
@@ -14168,25 +14168,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>454</v>
@@ -14218,25 +14218,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.025</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>455</v>
@@ -14268,28 +14268,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K215">
         <v>0.1666666666666667</v>
@@ -14318,25 +14318,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D216">
         <v>4</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>456</v>
@@ -14371,22 +14371,22 @@
         <v>0.02380952380952381</v>
       </c>
       <c r="C217">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>457</v>
@@ -14418,7 +14418,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14436,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>458</v>
@@ -14468,25 +14468,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E219">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F219">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>459</v>
@@ -14518,25 +14518,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>460</v>
@@ -14568,25 +14568,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>461</v>
@@ -14618,25 +14618,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02222222222222222</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>462</v>
@@ -14668,25 +14668,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02222222222222222</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>463</v>
@@ -14718,25 +14718,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02205882352941177</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E224">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F224">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>464</v>
@@ -14768,25 +14768,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02197802197802198</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C225">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>465</v>
@@ -14821,22 +14821,22 @@
         <v>0.02173913043478261</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>466</v>
@@ -14868,25 +14868,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02173913043478261</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="F227">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>467</v>
@@ -14918,25 +14918,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02173913043478261</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E228">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F228">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>468</v>
@@ -14968,25 +14968,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02150537634408602</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F229">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>469</v>
@@ -15018,25 +15018,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02105263157894737</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E230">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>470</v>
@@ -15074,13 +15074,13 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E231">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F231">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -15121,22 +15121,22 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>472</v>
@@ -15174,13 +15174,13 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E233">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F233">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
@@ -15218,25 +15218,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>474</v>
@@ -15268,25 +15268,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E235">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F235">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>475</v>
@@ -15318,25 +15318,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>476</v>
@@ -15368,28 +15368,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K237">
         <v>0.1640625</v>
@@ -15418,28 +15418,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
       <c r="D238">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E238">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F238">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K238">
         <v>0.1627906976744186</v>
@@ -15468,25 +15468,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>477</v>
@@ -15518,25 +15518,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F240">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>478</v>
@@ -15568,13 +15568,13 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E241">
         <v>0.93</v>
@@ -15586,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>479</v>
@@ -15618,25 +15618,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E242">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F242">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>480</v>
@@ -15668,13 +15668,13 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E243">
         <v>0.93</v>
@@ -15686,10 +15686,10 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K243">
         <v>0.16</v>
@@ -15718,25 +15718,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E244">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F244">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>481</v>
@@ -15768,28 +15768,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01785714285714286</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D245">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="E245">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F245">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K245">
         <v>0.1588785046728972</v>
@@ -15818,25 +15818,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>482</v>
@@ -15868,25 +15868,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01775147928994083</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="E247">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F247">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>483</v>
@@ -15924,13 +15924,13 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E248">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F248">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
@@ -15968,25 +15968,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E249">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F249">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>485</v>
@@ -16018,25 +16018,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E250">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F250">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>486</v>
@@ -16068,25 +16068,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01724137931034483</v>
+        <v>0.0167910447761194</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D251">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="E251">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F251">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>57</v>
+        <v>527</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>487</v>
@@ -16118,25 +16118,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E252">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F252">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>488</v>
@@ -16168,25 +16168,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0167910447761194</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C253">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E253">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F253">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>527</v>
+        <v>60</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>489</v>
@@ -16218,28 +16218,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01639344262295082</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E254">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F254">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K254">
         <v>0.1532258064516129</v>
@@ -16268,25 +16268,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E255">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F255">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>490</v>
@@ -16318,25 +16318,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01587301587301587</v>
+        <v>0.01444251877527441</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>437</v>
       </c>
       <c r="E256">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F256">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>62</v>
+        <v>1706</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>491</v>
@@ -16368,25 +16368,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.015625</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E257">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F257">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>492</v>
@@ -16418,25 +16418,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01444251877527441</v>
+        <v>0.01384083044982699</v>
       </c>
       <c r="C258">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D258">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="E258">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F258">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>1706</v>
+        <v>285</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>493</v>
@@ -16468,25 +16468,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01408450704225352</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E259">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F259">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>494</v>
@@ -16518,13 +16518,13 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01384083044982699</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C260">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E260">
         <v>0.5</v>
@@ -16536,10 +16536,10 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K260">
         <v>0.145985401459854</v>
@@ -16568,25 +16568,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0136986301369863</v>
+        <v>0.01340482573726542</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>72</v>
+        <v>368</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>495</v>
@@ -16618,28 +16618,28 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0136986301369863</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E262">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F262">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K262">
         <v>0.1451612903225807</v>
@@ -16668,25 +16668,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01340482573726542</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C263">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <v>368</v>
+        <v>75</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>496</v>
@@ -16718,25 +16718,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01324503311258278</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F264">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>497</v>
@@ -16768,25 +16768,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0131578947368421</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E265">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F265">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>498</v>
@@ -16818,25 +16818,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01282051282051282</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="E266">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F266">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>499</v>
@@ -16868,25 +16868,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01282051282051282</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E267">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F267">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>500</v>
@@ -16918,25 +16918,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01265822784810127</v>
+        <v>0.01264044943820225</v>
       </c>
       <c r="C268">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D268">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="E268">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F268">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>312</v>
+        <v>703</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>501</v>
@@ -16968,25 +16968,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01265822784810127</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E269">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F269">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>502</v>
@@ -17018,25 +17018,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01264044943820225</v>
+        <v>0.01187904967602592</v>
       </c>
       <c r="C270">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D270">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="E270">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="F270">
-        <v>0.05000000000000004</v>
+        <v>0.21</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>703</v>
+        <v>915</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>503</v>
@@ -17068,25 +17068,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01226993865030675</v>
+        <v>0.01166180758017493</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D271">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="E271">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F271">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>161</v>
+        <v>678</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>504</v>
@@ -17118,25 +17118,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01187904967602592</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C272">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E272">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="F272">
-        <v>0.21</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>915</v>
+        <v>85</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>505</v>
@@ -17168,13 +17168,13 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01166180758017493</v>
+        <v>0.0112766814337495</v>
       </c>
       <c r="C273">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D273">
-        <v>216</v>
+        <v>652</v>
       </c>
       <c r="E273">
         <v>0.96</v>
@@ -17186,7 +17186,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>678</v>
+        <v>2455</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>506</v>
@@ -17218,25 +17218,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01162790697674419</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E274">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F274">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>507</v>
@@ -17268,25 +17268,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0112766814337495</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C275">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>652</v>
+        <v>1</v>
       </c>
       <c r="E275">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F275">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>2455</v>
+        <v>89</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>508</v>
@@ -17318,25 +17318,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01123595505617977</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E276">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F276">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>509</v>
@@ -17368,25 +17368,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01111111111111111</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>510</v>
@@ -17418,25 +17418,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01075268817204301</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E278">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="F278">
-        <v>0.01000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>511</v>
@@ -17468,25 +17468,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.01075268817204301</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E279">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="F279">
-        <v>0.29</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>512</v>
@@ -17518,25 +17518,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.01041666666666667</v>
+        <v>0.009980039920159681</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D280">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E280">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F280">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>95</v>
+        <v>496</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>513</v>
@@ -17568,25 +17568,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.0101010101010101</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E281">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F281">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>514</v>
@@ -17618,25 +17618,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.009980039920159681</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C282">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E282">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F282">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>496</v>
+        <v>101</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>515</v>
@@ -17668,25 +17668,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.009900990099009901</v>
+        <v>0.009628610729023384</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D283">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="E283">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F283">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>100</v>
+        <v>720</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>516</v>
@@ -17718,25 +17718,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.009803921568627451</v>
+        <v>0.009398496240601503</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D284">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E284">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F284">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>101</v>
+        <v>1054</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>517</v>
@@ -17768,13 +17768,13 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.009628610729023384</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C285">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="E285">
         <v>0.95</v>
@@ -17786,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>720</v>
+        <v>107</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>518</v>
@@ -17818,25 +17818,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.009398496240601503</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C286">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D286">
+        <v>8</v>
+      </c>
+      <c r="E286">
+        <v>0.88</v>
+      </c>
+      <c r="F286">
+        <v>0.12</v>
+      </c>
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286">
         <v>107</v>
-      </c>
-      <c r="E286">
-        <v>0.91</v>
-      </c>
-      <c r="F286">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286">
-        <v>1054</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>519</v>
@@ -17868,25 +17868,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.009259259259259259</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E287">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F287">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>520</v>
@@ -17918,25 +17918,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.009259259259259259</v>
+        <v>0.008869179600886918</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D288">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E288">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F288">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>521</v>
@@ -17968,25 +17968,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.009174311926605505</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E289">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F289">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>522</v>
@@ -18018,25 +18018,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.008869179600886918</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="C290">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D290">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E290">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F290">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>447</v>
+        <v>231</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>523</v>
@@ -18068,25 +18068,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.008771929824561403</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E291">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F291">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>524</v>
@@ -18118,25 +18118,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.008583690987124463</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D292">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E292">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F292">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>525</v>
@@ -18168,25 +18168,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.008474576271186441</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E293">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F293">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>526</v>
@@ -18218,25 +18218,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.008403361344537815</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E294">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F294">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>527</v>
@@ -18268,25 +18268,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.00819672131147541</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E295">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F295">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>528</v>
@@ -18318,28 +18318,28 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.007936507936507936</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E296">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F296">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K296">
         <v>0.1388888888888889</v>
@@ -18368,28 +18368,28 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.007874015748031496</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E297">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F297">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K297">
         <v>0.1384615384615385</v>
@@ -18418,25 +18418,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.007518796992481203</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E298">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F298">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>529</v>
@@ -18468,25 +18468,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.006578947368421052</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E299">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F299">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>151</v>
+        <v>334</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>530</v>
@@ -18518,25 +18518,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.006134969325153374</v>
+        <v>0.00572655690765927</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D300">
-        <v>9</v>
+        <v>423</v>
       </c>
       <c r="E300">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F300">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>162</v>
+        <v>2778</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>531</v>
@@ -18568,25 +18568,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.005952380952380952</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="C301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E301">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F301">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>532</v>
@@ -18618,25 +18618,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.00572655690765927</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C302">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D302">
-        <v>423</v>
+        <v>69</v>
       </c>
       <c r="E302">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F302">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>2778</v>
+        <v>239</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>533</v>
@@ -18668,28 +18668,28 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.004950495049504951</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E303">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F303">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K303">
         <v>0.1358024691358025</v>
@@ -18718,25 +18718,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.004166666666666667</v>
+        <v>0.003584229390681004</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E304">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F304">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>534</v>
@@ -18768,28 +18768,28 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.003597122302158274</v>
+        <v>0.002762430939226519</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="E305">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F305">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K305">
         <v>0.1333333333333333</v>
@@ -18814,30 +18814,6 @@
       </c>
     </row>
     <row r="306" spans="1:17">
-      <c r="A306" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B306">
-        <v>0.003584229390681004</v>
-      </c>
-      <c r="C306">
-        <v>1</v>
-      </c>
-      <c r="D306">
-        <v>28</v>
-      </c>
-      <c r="E306">
-        <v>0.96</v>
-      </c>
-      <c r="F306">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G306" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306">
-        <v>278</v>
-      </c>
       <c r="J306" s="1" t="s">
         <v>535</v>
       </c>
@@ -18864,30 +18840,6 @@
       </c>
     </row>
     <row r="307" spans="1:17">
-      <c r="A307" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B307">
-        <v>0.002762430939226519</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307">
-        <v>125</v>
-      </c>
-      <c r="E307">
-        <v>0.99</v>
-      </c>
-      <c r="F307">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G307" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307">
-        <v>361</v>
-      </c>
       <c r="J307" s="1" t="s">
         <v>536</v>
       </c>
@@ -18941,7 +18893,7 @@
     </row>
     <row r="309" spans="1:17">
       <c r="J309" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K309">
         <v>0.1333333333333333</v>
@@ -18967,7 +18919,7 @@
     </row>
     <row r="310" spans="1:17">
       <c r="J310" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K310">
         <v>0.1333333333333333</v>
@@ -19097,7 +19049,7 @@
     </row>
     <row r="315" spans="1:17">
       <c r="J315" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K315">
         <v>0.1308411214953271</v>
@@ -19123,7 +19075,7 @@
     </row>
     <row r="316" spans="1:17">
       <c r="J316" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K316">
         <v>0.1304347826086956</v>
@@ -19149,7 +19101,7 @@
     </row>
     <row r="317" spans="1:17">
       <c r="J317" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K317">
         <v>0.1304347826086956</v>
@@ -19279,7 +19231,7 @@
     </row>
     <row r="322" spans="10:17">
       <c r="J322" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K322">
         <v>0.1283018867924528</v>
@@ -19331,7 +19283,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K324">
         <v>0.1277864992150707</v>
@@ -19409,7 +19361,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K327">
         <v>0.125</v>
@@ -19487,7 +19439,7 @@
     </row>
     <row r="330" spans="10:17">
       <c r="J330" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K330">
         <v>0.125</v>
@@ -20423,7 +20375,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K366">
         <v>0.1219512195121951</v>
@@ -20501,7 +20453,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K369">
         <v>0.1202185792349727</v>
@@ -20839,7 +20791,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K382">
         <v>0.1169590643274854</v>
@@ -20943,7 +20895,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K386">
         <v>0.1145833333333333</v>
@@ -21047,7 +20999,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K390">
         <v>0.1136363636363636</v>
@@ -21099,7 +21051,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K392">
         <v>0.1132075471698113</v>
@@ -21489,7 +21441,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K407">
         <v>0.1111111111111111</v>
@@ -21879,7 +21831,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K422">
         <v>0.1090909090909091</v>
@@ -21905,7 +21857,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K423">
         <v>0.1090909090909091</v>
@@ -22009,7 +21961,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K427">
         <v>0.1052631578947368</v>
@@ -22113,7 +22065,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K431">
         <v>0.1039426523297491</v>
@@ -22217,7 +22169,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K435">
         <v>0.1026785714285714</v>
@@ -22399,7 +22351,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K442">
         <v>0.1</v>
@@ -22451,7 +22403,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K444">
         <v>0.1</v>
@@ -23335,7 +23287,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K478">
         <v>0.09821428571428571</v>
@@ -23725,7 +23677,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K493">
         <v>0.09375</v>
@@ -23855,7 +23807,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K498">
         <v>0.09146341463414634</v>
@@ -24245,7 +24197,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K513">
         <v>0.09090909090909091</v>
@@ -24843,7 +24795,7 @@
     </row>
     <row r="536" spans="10:17">
       <c r="J536" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K536">
         <v>0.08852459016393442</v>
@@ -25077,7 +25029,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K545">
         <v>0.0842745438748914</v>
@@ -25701,7 +25653,7 @@
     </row>
     <row r="569" spans="10:17">
       <c r="J569" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K569">
         <v>0.08235294117647059</v>
@@ -25779,7 +25731,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K572">
         <v>0.08148148148148149</v>
@@ -25857,7 +25809,7 @@
     </row>
     <row r="575" spans="10:17">
       <c r="J575" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K575">
         <v>0.08029197080291971</v>
@@ -25961,7 +25913,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K579">
         <v>0.07894736842105263</v>
@@ -26065,7 +26017,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K583">
         <v>0.07692307692307693</v>
@@ -26169,7 +26121,7 @@
     </row>
     <row r="587" spans="10:17">
       <c r="J587" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K587">
         <v>0.07692307692307693</v>
@@ -26455,7 +26407,7 @@
     </row>
     <row r="598" spans="10:17">
       <c r="J598" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K598">
         <v>0.07692307692307693</v>
@@ -26767,7 +26719,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K610">
         <v>0.075</v>
@@ -27027,7 +26979,7 @@
     </row>
     <row r="620" spans="10:17">
       <c r="J620" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K620">
         <v>0.07142857142857142</v>
@@ -27157,7 +27109,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K625">
         <v>0.07142857142857142</v>
@@ -27937,7 +27889,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K655">
         <v>0.06818181818181818</v>
@@ -28015,7 +27967,7 @@
     </row>
     <row r="658" spans="10:17">
       <c r="J658" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K658">
         <v>0.0670391061452514</v>
@@ -28041,7 +27993,7 @@
     </row>
     <row r="659" spans="10:17">
       <c r="J659" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K659">
         <v>0.06666666666666667</v>
@@ -28353,7 +28305,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K671">
         <v>0.06666666666666667</v>
@@ -28535,7 +28487,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K678">
         <v>0.06542056074766354</v>
@@ -28561,7 +28513,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K679">
         <v>0.06521739130434782</v>
@@ -28665,7 +28617,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K683">
         <v>0.06451612903225806</v>
@@ -28743,7 +28695,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K686">
         <v>0.06382978723404255</v>
@@ -28769,7 +28721,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K687">
         <v>0.06382978723404255</v>
@@ -29289,7 +29241,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K707">
         <v>0.06140350877192982</v>
@@ -29367,7 +29319,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K710">
         <v>0.06060606060606061</v>
@@ -29523,7 +29475,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K716">
         <v>0.05882352941176471</v>
@@ -29653,7 +29605,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K721">
         <v>0.05882352941176471</v>
@@ -30771,7 +30723,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K764">
         <v>0.05172413793103448</v>
@@ -31005,7 +30957,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K773">
         <v>0.05</v>
@@ -31187,7 +31139,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K780">
         <v>0.04938271604938271</v>
@@ -31473,7 +31425,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K791">
         <v>0.04705882352941176</v>
@@ -31551,7 +31503,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K794">
         <v>0.04615384615384616</v>
@@ -32019,7 +31971,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K812">
         <v>0.0438871473354232</v>
@@ -32045,7 +31997,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K813">
         <v>0.04347826086956522</v>
@@ -32253,7 +32205,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K821">
         <v>0.04166666666666666</v>
@@ -32409,7 +32361,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K827">
         <v>0.04081632653061224</v>
@@ -32565,7 +32517,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K833">
         <v>0.04</v>
@@ -32669,7 +32621,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K837">
         <v>0.03846153846153846</v>
@@ -32747,7 +32699,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K840">
         <v>0.03819444444444445</v>
@@ -32981,7 +32933,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K849">
         <v>0.0364963503649635</v>
@@ -33267,7 +33219,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K860">
         <v>0.03448275862068965</v>
@@ -33449,7 +33401,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K867">
         <v>0.032</v>
@@ -33787,7 +33739,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K880">
         <v>0.02857142857142857</v>
@@ -33943,7 +33895,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K886">
         <v>0.02702702702702703</v>
@@ -34021,7 +33973,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K889">
         <v>0.02645502645502645</v>
@@ -34099,7 +34051,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K892">
         <v>0.02631578947368421</v>
@@ -34177,7 +34129,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K895">
         <v>0.02564102564102564</v>
@@ -34203,7 +34155,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K896">
         <v>0.025</v>
@@ -34775,7 +34727,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K918">
         <v>0.01384083044982699</v>
@@ -34801,7 +34753,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K919">
         <v>0.0136986301369863</v>
